--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Laboratory accreditation.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Laboratory accreditation.xlsx
@@ -32,12 +32,6 @@
     <t>L001A</t>
   </si>
   <si>
-    <t>Third party assessment</t>
-  </si>
-  <si>
-    <t>L002A</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -45,6 +39,12 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Third party assessment</t>
+  </si>
+  <si>
+    <t>L002A</t>
   </si>
 </sst>
 </file>
@@ -128,12 +128,12 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
